--- a/Daftar Akun.xlsx
+++ b/Daftar Akun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -99,6 +99,69 @@
   </si>
   <si>
     <t>applicationtester77@gmail.com</t>
+  </si>
+  <si>
+    <t>nopol</t>
+  </si>
+  <si>
+    <t>kontrak</t>
+  </si>
+  <si>
+    <t>belum</t>
+  </si>
+  <si>
+    <t>sudah</t>
+  </si>
+  <si>
+    <t>noPolEmpty</t>
+  </si>
+  <si>
+    <t>noPolNotFound</t>
+  </si>
+  <si>
+    <t>Aing Macan</t>
+  </si>
+  <si>
+    <t>Aing Singa</t>
+  </si>
+  <si>
+    <t>Aing Gajah</t>
+  </si>
+  <si>
+    <t>phoneNoEmpty</t>
+  </si>
+  <si>
+    <t>phoneNoShort</t>
+  </si>
+  <si>
+    <t>phoneNoExist</t>
+  </si>
+  <si>
+    <t>passInvalid</t>
+  </si>
+  <si>
+    <t>confPassNotMatch</t>
+  </si>
+  <si>
+    <t>Tikus</t>
+  </si>
+  <si>
+    <t>Jerapah</t>
+  </si>
+  <si>
+    <t>Application2!</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>succeed</t>
+  </si>
+  <si>
+    <t>w1316pk</t>
+  </si>
+  <si>
+    <t>application</t>
   </si>
 </sst>
 </file>
@@ -427,23 +490,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +535,14 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -488,14 +558,20 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>261294</v>
+      </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -514,14 +590,20 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3">
+        <v>261294</v>
+      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -538,14 +620,20 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
+      <c r="G4">
+        <v>261294</v>
+      </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -564,14 +652,20 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
+      <c r="G5">
+        <v>261294</v>
+      </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -590,11 +684,258 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
+      <c r="G6">
+        <v>261294</v>
+      </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>261294</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>822</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>261294</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>82297476950</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>261294</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>82297476950</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>261294</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>82297476950</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>261294</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>82297476950</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>261294</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>261294</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>261294</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -602,6 +943,14 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daftar Akun.xlsx
+++ b/Daftar Akun.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,6 +50,9 @@
     <t>condition</t>
   </si>
   <si>
+    <t>fairytailfg@gmail.com</t>
+  </si>
+  <si>
     <t>laki</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>gagalemail</t>
   </si>
   <si>
+    <t>applicationtester77@gmail.com</t>
+  </si>
+  <si>
     <t>nopol</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
     <t>Application2!</t>
   </si>
   <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
     <t>succeed</t>
   </si>
   <si>
@@ -153,21 +162,12 @@
   </si>
   <si>
     <t>application</t>
-  </si>
-  <si>
-    <t>lexantyoke@gmail.com</t>
-  </si>
-  <si>
-    <t>fairytailfg@gmail.com</t>
-  </si>
-  <si>
-    <t>Leksanti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,10 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,21 +493,21 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,415 +533,424 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>82297476950</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>261294</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>82297476950</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>261294</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <v>82297476950</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>261294</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>82297476950</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>261294</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C6">
         <v>82297476950</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>261294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>261294</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>82297476950</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>261294</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>82297476950</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>261294</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
-        <v>82297476950</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>261294</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>261294</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2">
-        <v>82297476950</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>261294</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>261294</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C8">
         <v>822</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>261294</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C9">
+        <v>82297476950</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>261294</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>82297476950</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>261294</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>82297476950</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>261294</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>82297476950</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>261294</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>261294</v>
+      </c>
+      <c r="I12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2">
-        <v>81228910272</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>261294</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2">
-        <v>82297476950</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>261294</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
-        <v>261294</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2">
-        <v>81325184829</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11">
-        <v>261294</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2">
-        <v>81325184829</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>261294</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>261294</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>261294</v>
       </c>
       <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
